--- a/Documents/Iteration 3 Test Plan.xlsx
+++ b/Documents/Iteration 3 Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\LocationTriggering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD4F36A-F544-4B80-8013-8076A314E58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CCA274-A848-41D9-882A-667E8E25D25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97AE0784-389F-4BDF-8D69-C7634434A782}"/>
   </bookViews>
